--- a/xcel_data/ursk0+urun0.xlsx
+++ b/xcel_data/ursk0+urun0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GAMS\NEWAGE_REEEM\xcel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland\Documents\NEWAGE_diss\xcel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28515" windowHeight="11820"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28515" windowHeight="11820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ur" sheetId="23" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -555,8 +555,8 @@
     <xf numFmtId="0" fontId="6" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -597,9 +597,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -714,25 +714,25 @@
                   <c:v>3.1770833865325435E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7034252088280581E-2</c:v>
+                  <c:v>3.8657009046371357E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8.3893052858913922E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2268947674291164E-2</c:v>
+                  <c:v>3.2268947674291157E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0288523141904335E-2</c:v>
+                  <c:v>5.2828024029968501E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3497362254319961E-2</c:v>
+                  <c:v>3.4276500700680633E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4.8527868035793384E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0792704604896665E-2</c:v>
+                  <c:v>3.462963251277807E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6.9001387921391794E-2</c:v>
@@ -744,18 +744,18 @@
                   <c:v>1.1467541877873282E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7912213809172492E-3</c:v>
+                  <c:v>4.7912213809172483E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.10019105629269928</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2887109714049969E-2</c:v>
+                  <c:v>5.5044146425586145E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7D57-4042-B5F7-5D5072A7BE24}"/>
             </c:ext>
@@ -770,11 +770,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="106094592"/>
-        <c:axId val="56651136"/>
+        <c:axId val="352220656"/>
+        <c:axId val="352226256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106094592"/>
+        <c:axId val="352220656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,7 +784,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56651136"/>
+        <c:crossAx val="352226256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -792,7 +792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56651136"/>
+        <c:axId val="352226256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -803,7 +803,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106094592"/>
+        <c:crossAx val="352220656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -821,9 +821,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -938,7 +938,7 @@
                   <c:v>8.9914814441356475E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10702158788667954</c:v>
+                  <c:v>0.11177855229642618</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.22125739930234523</c:v>
@@ -947,16 +947,16 @@
                   <c:v>8.4895856692510999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11296013537637226</c:v>
+                  <c:v>0.14169871966611219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15429279871599494</c:v>
+                  <c:v>9.2472536145125087E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.12061189914645451</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9530990408924337E-2</c:v>
+                  <c:v>5.8038311483522342E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8.6639862943234044E-2</c:v>
@@ -974,12 +974,12 @@
                   <c:v>0.29154172186198773</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.540719445810673E-2</c:v>
+                  <c:v>9.4090444800278464E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BC87-4C5D-A731-5F3C56A85F37}"/>
             </c:ext>
@@ -994,11 +994,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="106095104"/>
-        <c:axId val="56652864"/>
+        <c:axId val="300460512"/>
+        <c:axId val="300459952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106095104"/>
+        <c:axId val="300460512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56652864"/>
+        <c:crossAx val="300459952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1016,7 +1016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56652864"/>
+        <c:axId val="300459952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1027,7 +1027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106095104"/>
+        <c:crossAx val="300460512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1045,9 +1045,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1059,6 +1059,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1164,25 +1165,25 @@
                   <c:v>3.1770833865325435E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7034252088280581E-2</c:v>
+                  <c:v>3.8657009046371357E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8.3893052858913922E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2268947674291164E-2</c:v>
+                  <c:v>3.2268947674291157E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0288523141904335E-2</c:v>
+                  <c:v>5.2828024029968501E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3497362254319961E-2</c:v>
+                  <c:v>3.4276500700680633E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4.8527868035793384E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0792704604896665E-2</c:v>
+                  <c:v>3.462963251277807E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6.9001387921391794E-2</c:v>
@@ -1194,21 +1195,21 @@
                   <c:v>1.1467541877873282E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7912213809172492E-3</c:v>
+                  <c:v>4.7912213809172483E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.10019105629269928</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2887109714049969E-2</c:v>
+                  <c:v>5.5044146425586145E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4985135155391737E-2</c:v>
+                  <c:v>3.1501496884193694E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F925-4E3D-B126-1ED961E7CCEA}"/>
             </c:ext>
@@ -1223,11 +1224,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41225728"/>
-        <c:axId val="41387712"/>
+        <c:axId val="300457152"/>
+        <c:axId val="300456592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41225728"/>
+        <c:axId val="300457152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41387712"/>
+        <c:crossAx val="300456592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1245,7 +1246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41387712"/>
+        <c:axId val="300456592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,7 +1257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41225728"/>
+        <c:crossAx val="300457152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1274,9 +1275,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1288,6 +1289,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1393,7 +1395,7 @@
                   <c:v>8.9914814441356475E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10702158788667954</c:v>
+                  <c:v>0.11177855229642618</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.22125739930234523</c:v>
@@ -1402,16 +1404,16 @@
                   <c:v>8.4895856692510999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11296013537637226</c:v>
+                  <c:v>0.14169871966611219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15429279871599494</c:v>
+                  <c:v>9.2472536145125087E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.12061189914645451</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9530990408924337E-2</c:v>
+                  <c:v>5.8038311483522342E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8.6639862943234044E-2</c:v>
@@ -1429,15 +1431,15 @@
                   <c:v>0.29154172186198773</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.540719445810673E-2</c:v>
+                  <c:v>9.4090444800278464E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.9528402861589201E-2</c:v>
+                  <c:v>5.2098659005976287E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EB5E-4403-9FA8-4968EF9721B8}"/>
             </c:ext>
@@ -1452,11 +1454,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41224704"/>
-        <c:axId val="41390016"/>
+        <c:axId val="300451552"/>
+        <c:axId val="300457712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41224704"/>
+        <c:axId val="300451552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41390016"/>
+        <c:crossAx val="300457712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1474,7 +1476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41390016"/>
+        <c:axId val="300457712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,7 +1487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41224704"/>
+        <c:crossAx val="300451552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1503,9 +1505,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1517,6 +1519,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1622,25 +1625,25 @@
                   <c:v>3.1770833865325435E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7034252088280581E-2</c:v>
+                  <c:v>3.8657009046371357E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8.3893052858913922E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2268947674291164E-2</c:v>
+                  <c:v>3.2268947674291157E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0288523141904335E-2</c:v>
+                  <c:v>5.2828024029968501E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3497362254319961E-2</c:v>
+                  <c:v>3.4276500700680633E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4.8527868035793384E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0792704604896665E-2</c:v>
+                  <c:v>3.462963251277807E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6.9001387921391794E-2</c:v>
@@ -1652,21 +1655,21 @@
                   <c:v>1.1467541877873282E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7912213809172492E-3</c:v>
+                  <c:v>4.7912213809172483E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.10019105629269928</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2887109714049969E-2</c:v>
+                  <c:v>5.5044146425586145E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4985135155391737E-2</c:v>
+                  <c:v>3.1501496884193694E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2C26-4F87-9347-7BD15717E867}"/>
             </c:ext>
@@ -1681,11 +1684,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="106096128"/>
-        <c:axId val="56654592"/>
+        <c:axId val="353612752"/>
+        <c:axId val="353613312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106096128"/>
+        <c:axId val="353612752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,7 +1698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56654592"/>
+        <c:crossAx val="353613312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1703,7 +1706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56654592"/>
+        <c:axId val="353613312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,7 +1717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106096128"/>
+        <c:crossAx val="353612752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1732,9 +1735,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1746,6 +1749,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1851,7 +1855,7 @@
                   <c:v>8.9914814441356475E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10702158788667954</c:v>
+                  <c:v>0.11177855229642618</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.22125739930234523</c:v>
@@ -1860,16 +1864,16 @@
                   <c:v>8.4895856692510999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11296013537637226</c:v>
+                  <c:v>0.14169871966611219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15429279871599494</c:v>
+                  <c:v>9.2472536145125087E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.12061189914645451</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9530990408924337E-2</c:v>
+                  <c:v>5.8038311483522342E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8.6639862943234044E-2</c:v>
@@ -1887,15 +1891,15 @@
                   <c:v>0.29154172186198773</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.540719445810673E-2</c:v>
+                  <c:v>9.4090444800278464E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.9528402861589201E-2</c:v>
+                  <c:v>5.2098659005976287E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D187-4737-8515-61FCB1C90AF8}"/>
             </c:ext>
@@ -1910,11 +1914,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="106098176"/>
-        <c:axId val="106381888"/>
+        <c:axId val="353615552"/>
+        <c:axId val="353616112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106098176"/>
+        <c:axId val="353615552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,7 +1928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106381888"/>
+        <c:crossAx val="353616112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1932,7 +1936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106381888"/>
+        <c:axId val="353616112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106098176"/>
+        <c:crossAx val="353615552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2194,14 +2198,11 @@
       <sheetName val="ILO unemployment 2010"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="3">
-          <cell r="B3" t="str">
-            <v>DEU</v>
-          </cell>
           <cell r="U3">
             <v>2.2713624045570792E-2</v>
           </cell>
@@ -2235,10 +2236,10 @@
         </row>
         <row r="7">
           <cell r="U7">
-            <v>3.7034252088280581E-2</v>
+            <v>3.8657009046371357E-2</v>
           </cell>
           <cell r="V7">
-            <v>0.10702158788667954</v>
+            <v>0.11177855229642618</v>
           </cell>
         </row>
         <row r="8">
@@ -2251,7 +2252,7 @@
         </row>
         <row r="9">
           <cell r="U9">
-            <v>3.2268947674291164E-2</v>
+            <v>3.2268947674291157E-2</v>
           </cell>
           <cell r="V9">
             <v>8.4895856692510999E-2</v>
@@ -2259,18 +2260,18 @@
         </row>
         <row r="10">
           <cell r="U10">
-            <v>4.0288523141904335E-2</v>
+            <v>5.2828024029968501E-2</v>
           </cell>
           <cell r="V10">
-            <v>0.11296013537637226</v>
+            <v>0.14169871966611219</v>
           </cell>
         </row>
         <row r="11">
           <cell r="U11">
-            <v>5.3497362254319961E-2</v>
+            <v>3.4276500700680633E-2</v>
           </cell>
           <cell r="V11">
-            <v>0.15429279871599494</v>
+            <v>9.2472536145125087E-2</v>
           </cell>
         </row>
         <row r="12">
@@ -2283,10 +2284,10 @@
         </row>
         <row r="13">
           <cell r="U13">
-            <v>3.0792704604896665E-2</v>
+            <v>3.462963251277807E-2</v>
           </cell>
           <cell r="V13">
-            <v>1.9530990408924337E-2</v>
+            <v>5.8038311483522342E-2</v>
           </cell>
         </row>
         <row r="14">
@@ -2315,7 +2316,7 @@
         </row>
         <row r="17">
           <cell r="U17">
-            <v>4.7912213809172492E-3</v>
+            <v>4.7912213809172483E-3</v>
           </cell>
           <cell r="V17">
             <v>1.6610984585223532E-2</v>
@@ -2331,33 +2332,33 @@
         </row>
         <row r="19">
           <cell r="U19">
-            <v>6.2887109714049969E-2</v>
+            <v>5.5044146425586145E-2</v>
           </cell>
           <cell r="V19">
-            <v>7.540719445810673E-2</v>
+            <v>9.4090444800278464E-2</v>
           </cell>
         </row>
         <row r="20">
           <cell r="U20">
-            <v>4.4985135155391737E-2</v>
+            <v>3.1501496884193694E-2</v>
           </cell>
           <cell r="V20">
-            <v>7.9528402861589201E-2</v>
+            <v>5.2098659005976287E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2546,7 +2547,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2834,11 +2835,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="20" customWidth="1"/>
@@ -2970,11 +2971,11 @@
       </c>
       <c r="C7" s="40">
         <f>ursk0!C7</f>
-        <v>3.7034252088280581E-2</v>
+        <v>3.8657009046371357E-2</v>
       </c>
       <c r="D7" s="42">
         <f>urun0!C7</f>
-        <v>0.10702158788667954</v>
+        <v>0.11177855229642618</v>
       </c>
       <c r="E7" s="37" t="s">
         <v>5</v>
@@ -3014,7 +3015,7 @@
       </c>
       <c r="C9" s="40">
         <f>ursk0!C9</f>
-        <v>3.2268947674291164E-2</v>
+        <v>3.2268947674291157E-2</v>
       </c>
       <c r="D9" s="42">
         <f>urun0!C9</f>
@@ -3036,11 +3037,11 @@
       </c>
       <c r="C10" s="40">
         <f>ursk0!C10</f>
-        <v>4.0288523141904335E-2</v>
+        <v>5.2828024029968501E-2</v>
       </c>
       <c r="D10" s="42">
         <f>urun0!C10</f>
-        <v>0.11296013537637226</v>
+        <v>0.14169871966611219</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>8</v>
@@ -3058,11 +3059,11 @@
       </c>
       <c r="C11" s="40">
         <f>ursk0!C11</f>
-        <v>5.3497362254319961E-2</v>
+        <v>3.4276500700680633E-2</v>
       </c>
       <c r="D11" s="42">
         <f>urun0!C11</f>
-        <v>0.15429279871599494</v>
+        <v>9.2472536145125087E-2</v>
       </c>
       <c r="E11" s="38" t="s">
         <v>9</v>
@@ -3102,11 +3103,11 @@
       </c>
       <c r="C13" s="40">
         <f>ursk0!C13</f>
-        <v>3.0792704604896665E-2</v>
+        <v>3.462963251277807E-2</v>
       </c>
       <c r="D13" s="42">
         <f>urun0!C13</f>
-        <v>1.9530990408924337E-2</v>
+        <v>5.8038311483522342E-2</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>11</v>
@@ -3190,7 +3191,7 @@
       </c>
       <c r="C17" s="40">
         <f>ursk0!C17</f>
-        <v>4.7912213809172492E-3</v>
+        <v>4.7912213809172483E-3</v>
       </c>
       <c r="D17" s="42">
         <f>urun0!C17</f>
@@ -3234,11 +3235,11 @@
       </c>
       <c r="C19" s="40">
         <f>ursk0!C19</f>
-        <v>6.2887109714049969E-2</v>
+        <v>5.5044146425586145E-2</v>
       </c>
       <c r="D19" s="42">
         <f>urun0!C19</f>
-        <v>7.540719445810673E-2</v>
+        <v>9.4090444800278464E-2</v>
       </c>
       <c r="E19" s="44" t="s">
         <v>17</v>
@@ -3256,11 +3257,11 @@
       </c>
       <c r="C20" s="40">
         <f>ursk0!C20</f>
-        <v>4.4985135155391737E-2</v>
+        <v>3.1501496884193694E-2</v>
       </c>
       <c r="D20" s="42">
         <f>urun0!C20</f>
-        <v>7.9528402861589201E-2</v>
+        <v>5.2098659005976287E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3283,7 +3284,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="20" customWidth="1"/>
@@ -3415,11 +3416,11 @@
       </c>
       <c r="C7" s="40">
         <f>ursk0!C7</f>
-        <v>3.7034252088280581E-2</v>
+        <v>3.8657009046371357E-2</v>
       </c>
       <c r="D7" s="42">
         <f>urun0!C7</f>
-        <v>0.10702158788667954</v>
+        <v>0.11177855229642618</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>4</v>
@@ -3459,7 +3460,7 @@
       </c>
       <c r="C9" s="40">
         <f>ursk0!C9</f>
-        <v>3.2268947674291164E-2</v>
+        <v>3.2268947674291157E-2</v>
       </c>
       <c r="D9" s="42">
         <f>urun0!C9</f>
@@ -3481,11 +3482,11 @@
       </c>
       <c r="C10" s="40">
         <f>ursk0!C10</f>
-        <v>4.0288523141904335E-2</v>
+        <v>5.2828024029968501E-2</v>
       </c>
       <c r="D10" s="42">
         <f>urun0!C10</f>
-        <v>0.11296013537637226</v>
+        <v>0.14169871966611219</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>7</v>
@@ -3503,11 +3504,11 @@
       </c>
       <c r="C11" s="40">
         <f>ursk0!C11</f>
-        <v>5.3497362254319961E-2</v>
+        <v>3.4276500700680633E-2</v>
       </c>
       <c r="D11" s="42">
         <f>urun0!C11</f>
-        <v>0.15429279871599494</v>
+        <v>9.2472536145125087E-2</v>
       </c>
       <c r="E11" s="38" t="s">
         <v>8</v>
@@ -3547,11 +3548,11 @@
       </c>
       <c r="C13" s="40">
         <f>ursk0!C13</f>
-        <v>3.0792704604896665E-2</v>
+        <v>3.462963251277807E-2</v>
       </c>
       <c r="D13" s="42">
         <f>urun0!C13</f>
-        <v>1.9530990408924337E-2</v>
+        <v>5.8038311483522342E-2</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>10</v>
@@ -3635,7 +3636,7 @@
       </c>
       <c r="C17" s="40">
         <f>ursk0!C17</f>
-        <v>4.7912213809172492E-3</v>
+        <v>4.7912213809172483E-3</v>
       </c>
       <c r="D17" s="42">
         <f>urun0!C17</f>
@@ -3679,11 +3680,11 @@
       </c>
       <c r="C19" s="40">
         <f>ursk0!C19</f>
-        <v>6.2887109714049969E-2</v>
+        <v>5.5044146425586145E-2</v>
       </c>
       <c r="D19" s="42">
         <f>urun0!C19</f>
-        <v>7.540719445810673E-2</v>
+        <v>9.4090444800278464E-2</v>
       </c>
       <c r="E19" s="38" t="s">
         <v>16</v>
@@ -3701,11 +3702,11 @@
       </c>
       <c r="C20" s="40">
         <f>ursk0!C20</f>
-        <v>4.4985135155391737E-2</v>
+        <v>3.1501496884193694E-2</v>
       </c>
       <c r="D20" s="42">
         <f>urun0!C20</f>
-        <v>7.9528402861589201E-2</v>
+        <v>5.2098659005976287E-2</v>
       </c>
       <c r="E20" s="44" t="s">
         <v>17</v>
@@ -3730,11 +3731,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="20" customWidth="1"/>
@@ -3844,7 +3845,7 @@
       </c>
       <c r="C7" s="40">
         <f>[1]RESULTS!U7</f>
-        <v>3.7034252088280581E-2</v>
+        <v>3.8657009046371357E-2</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>4</v>
@@ -3880,7 +3881,7 @@
       </c>
       <c r="C9" s="40">
         <f>[1]RESULTS!U9</f>
-        <v>3.2268947674291164E-2</v>
+        <v>3.2268947674291157E-2</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>6</v>
@@ -3898,7 +3899,7 @@
       </c>
       <c r="C10" s="40">
         <f>[1]RESULTS!U10</f>
-        <v>4.0288523141904335E-2</v>
+        <v>5.2828024029968501E-2</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>7</v>
@@ -3916,7 +3917,7 @@
       </c>
       <c r="C11" s="40">
         <f>[1]RESULTS!U11</f>
-        <v>5.3497362254319961E-2</v>
+        <v>3.4276500700680633E-2</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>8</v>
@@ -3952,7 +3953,7 @@
       </c>
       <c r="C13" s="40">
         <f>[1]RESULTS!U13</f>
-        <v>3.0792704604896665E-2</v>
+        <v>3.462963251277807E-2</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>10</v>
@@ -4024,7 +4025,7 @@
       </c>
       <c r="C17" s="40">
         <f>[1]RESULTS!U17</f>
-        <v>4.7912213809172492E-3</v>
+        <v>4.7912213809172483E-3</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>14</v>
@@ -4060,7 +4061,7 @@
       </c>
       <c r="C19" s="40">
         <f>[1]RESULTS!U19</f>
-        <v>6.2887109714049969E-2</v>
+        <v>5.5044146425586145E-2</v>
       </c>
       <c r="D19" s="38" t="s">
         <v>16</v>
@@ -4078,7 +4079,7 @@
       </c>
       <c r="C20" s="40">
         <f>[1]RESULTS!U20</f>
-        <v>4.4985135155391737E-2</v>
+        <v>3.1501496884193694E-2</v>
       </c>
       <c r="D20" s="44" t="s">
         <v>17</v>
@@ -4103,11 +4104,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="20" customWidth="1"/>
@@ -4217,7 +4218,7 @@
       </c>
       <c r="C7" s="40">
         <f>[1]RESULTS!V7</f>
-        <v>0.10702158788667954</v>
+        <v>0.11177855229642618</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>4</v>
@@ -4271,7 +4272,7 @@
       </c>
       <c r="C10" s="40">
         <f>[1]RESULTS!V10</f>
-        <v>0.11296013537637226</v>
+        <v>0.14169871966611219</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>7</v>
@@ -4289,7 +4290,7 @@
       </c>
       <c r="C11" s="40">
         <f>[1]RESULTS!V11</f>
-        <v>0.15429279871599494</v>
+        <v>9.2472536145125087E-2</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>8</v>
@@ -4325,7 +4326,7 @@
       </c>
       <c r="C13" s="40">
         <f>[1]RESULTS!V13</f>
-        <v>1.9530990408924337E-2</v>
+        <v>5.8038311483522342E-2</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>10</v>
@@ -4433,7 +4434,7 @@
       </c>
       <c r="C19" s="40">
         <f>[1]RESULTS!V19</f>
-        <v>7.540719445810673E-2</v>
+        <v>9.4090444800278464E-2</v>
       </c>
       <c r="D19" s="38" t="s">
         <v>16</v>
@@ -4451,7 +4452,7 @@
       </c>
       <c r="C20" s="40">
         <f>[1]RESULTS!V20</f>
-        <v>7.9528402861589201E-2</v>
+        <v>5.2098659005976287E-2</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>17</v>
@@ -4480,7 +4481,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="10.140625" customWidth="1"/>
   </cols>
@@ -4617,10 +4618,10 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="10.140625" customWidth="1"/>
   </cols>
